--- a/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Col18a1-Gpc1.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Col18a1-Gpc1.xlsx
@@ -543,16 +543,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>54.5090905</v>
+        <v>19.3839195</v>
       </c>
       <c r="H2">
-        <v>109.018181</v>
+        <v>38.767839</v>
       </c>
       <c r="I2">
-        <v>0.4968355992046299</v>
+        <v>0.2693195261146905</v>
       </c>
       <c r="J2">
-        <v>0.4461306648899932</v>
+        <v>0.2583991365828404</v>
       </c>
       <c r="K2">
         <v>2</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.4808749999999999</v>
+        <v>1.7139025</v>
       </c>
       <c r="N2">
-        <v>0.9617499999999999</v>
+        <v>3.427805</v>
       </c>
       <c r="O2">
-        <v>0.008972735441887963</v>
+        <v>0.03217902768459407</v>
       </c>
       <c r="P2">
-        <v>0.008345961472334341</v>
+        <v>0.02838262018067593</v>
       </c>
       <c r="Q2">
-        <v>26.2120588941875</v>
+        <v>33.22214809084875</v>
       </c>
       <c r="R2">
-        <v>104.84823557675</v>
+        <v>132.888592363395</v>
       </c>
       <c r="S2">
-        <v>0.004457974389775026</v>
+        <v>0.008666440486846384</v>
       </c>
       <c r="T2">
-        <v>0.003723389340798786</v>
+        <v>0.00733404454864536</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -605,16 +605,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>54.5090905</v>
+        <v>19.3839195</v>
       </c>
       <c r="H3">
-        <v>109.018181</v>
+        <v>38.767839</v>
       </c>
       <c r="I3">
-        <v>0.4968355992046299</v>
+        <v>0.2693195261146905</v>
       </c>
       <c r="J3">
-        <v>0.4461306648899932</v>
+        <v>0.2583991365828404</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -629,22 +629,22 @@
         <v>14.596253</v>
       </c>
       <c r="O3">
-        <v>0.09078472687764562</v>
+        <v>0.09134965950092246</v>
       </c>
       <c r="P3">
-        <v>0.1266646895538805</v>
+        <v>0.1208586558920509</v>
       </c>
       <c r="Q3">
-        <v>265.2094919126322</v>
+        <v>94.3108643845445</v>
       </c>
       <c r="R3">
-        <v>1591.256951475793</v>
+        <v>565.8651863072671</v>
       </c>
       <c r="S3">
-        <v>0.04510508417688373</v>
+        <v>0.02460224700752677</v>
       </c>
       <c r="T3">
-        <v>0.05650900216875728</v>
+        <v>0.03122977233106856</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -667,16 +667,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>54.5090905</v>
+        <v>19.3839195</v>
       </c>
       <c r="H4">
-        <v>109.018181</v>
+        <v>38.767839</v>
       </c>
       <c r="I4">
-        <v>0.4968355992046299</v>
+        <v>0.2693195261146905</v>
       </c>
       <c r="J4">
-        <v>0.4461306648899932</v>
+        <v>0.2583991365828404</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>1.708736</v>
+        <v>3.153815333333333</v>
       </c>
       <c r="N4">
-        <v>5.126208</v>
+        <v>9.461445999999999</v>
       </c>
       <c r="O4">
-        <v>0.03188362062496464</v>
+        <v>0.05921381812759512</v>
       </c>
       <c r="P4">
-        <v>0.04448467321775106</v>
+        <v>0.07834186255576833</v>
       </c>
       <c r="Q4">
-        <v>93.141645264608</v>
+        <v>61.13330253919899</v>
       </c>
       <c r="R4">
-        <v>558.849871587648</v>
+        <v>366.799815235194</v>
       </c>
       <c r="S4">
-        <v>0.0158409177580174</v>
+        <v>0.01594743743756539</v>
       </c>
       <c r="T4">
-        <v>0.01984597684004935</v>
+        <v>0.02024346964270209</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -729,16 +729,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>54.5090905</v>
+        <v>19.3839195</v>
       </c>
       <c r="H5">
-        <v>109.018181</v>
+        <v>38.767839</v>
       </c>
       <c r="I5">
-        <v>0.4968355992046299</v>
+        <v>0.2693195261146905</v>
       </c>
       <c r="J5">
-        <v>0.4461306648899932</v>
+        <v>0.2583991365828404</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>45.062479</v>
+        <v>37.2992575</v>
       </c>
       <c r="N5">
-        <v>90.12495799999999</v>
+        <v>74.59851499999999</v>
       </c>
       <c r="O5">
-        <v>0.8408291186329754</v>
+        <v>0.7003046204246175</v>
       </c>
       <c r="P5">
-        <v>0.7820945434507416</v>
+        <v>0.6176842957191133</v>
       </c>
       <c r="Q5">
-        <v>2456.314745965349</v>
+        <v>723.0058047897712</v>
       </c>
       <c r="R5">
-        <v>9825.258983861397</v>
+        <v>2892.023219159085</v>
       </c>
       <c r="S5">
-        <v>0.4177538389847151</v>
+        <v>0.1886057085086862</v>
       </c>
       <c r="T5">
-        <v>0.348916358676515</v>
+        <v>0.1596090886945987</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,16 +791,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>54.5090905</v>
+        <v>19.3839195</v>
       </c>
       <c r="H6">
-        <v>109.018181</v>
+        <v>38.767839</v>
       </c>
       <c r="I6">
-        <v>0.4968355992046299</v>
+        <v>0.2693195261146905</v>
       </c>
       <c r="J6">
-        <v>0.4461306648899932</v>
+        <v>0.2583991365828404</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>0.5802156666666667</v>
+        <v>2.928649333333333</v>
       </c>
       <c r="N6">
-        <v>1.740647</v>
+        <v>8.785947999999999</v>
       </c>
       <c r="O6">
-        <v>0.01082635128929275</v>
+        <v>0.05498625970602254</v>
       </c>
       <c r="P6">
-        <v>0.01510514457908433</v>
+        <v>0.07274866131858995</v>
       </c>
       <c r="Q6">
-        <v>31.62702828385117</v>
+        <v>56.76870292106199</v>
       </c>
       <c r="R6">
-        <v>189.762169703107</v>
+        <v>340.612217526372</v>
       </c>
       <c r="S6">
-        <v>0.005378916730015582</v>
+        <v>0.01480887340684529</v>
       </c>
       <c r="T6">
-        <v>0.00673886819432637</v>
+        <v>0.01879819127228112</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,16 +853,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>54.5090905</v>
+        <v>19.3839195</v>
       </c>
       <c r="H7">
-        <v>109.018181</v>
+        <v>38.767839</v>
       </c>
       <c r="I7">
-        <v>0.4968355992046299</v>
+        <v>0.2693195261146905</v>
       </c>
       <c r="J7">
-        <v>0.4461306648899932</v>
+        <v>0.2583991365828404</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.8951863333333333</v>
+        <v>3.300433333333334</v>
       </c>
       <c r="N7">
-        <v>2.685559</v>
+        <v>9.901300000000001</v>
       </c>
       <c r="O7">
-        <v>0.01670344713323365</v>
+        <v>0.06196661455624835</v>
       </c>
       <c r="P7">
-        <v>0.02330498772620821</v>
+        <v>0.08198390433380152</v>
       </c>
       <c r="Q7">
-        <v>48.79579285802983</v>
+        <v>63.97533404845001</v>
       </c>
       <c r="R7">
-        <v>292.774757148179</v>
+        <v>383.8520042907001</v>
       </c>
       <c r="S7">
-        <v>0.008298867165222998</v>
+        <v>0.01668881926722049</v>
       </c>
       <c r="T7">
-        <v>0.0103970696695464</v>
+        <v>0.0211845700935445</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -921,10 +921,10 @@
         <v>17.248962</v>
       </c>
       <c r="I8">
-        <v>0.05240653924154719</v>
+        <v>0.07988549945244224</v>
       </c>
       <c r="J8">
-        <v>0.0705872251319459</v>
+        <v>0.1149694438152775</v>
       </c>
       <c r="K8">
         <v>2</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>0.4808749999999999</v>
+        <v>1.7139025</v>
       </c>
       <c r="N8">
-        <v>0.9617499999999999</v>
+        <v>3.427805</v>
       </c>
       <c r="O8">
-        <v>0.008972735441887963</v>
+        <v>0.03217902768459407</v>
       </c>
       <c r="P8">
-        <v>0.008345961472334341</v>
+        <v>0.02838262018067593</v>
       </c>
       <c r="Q8">
-        <v>2.76486486725</v>
+        <v>9.854346364734999</v>
       </c>
       <c r="R8">
-        <v>16.5891892035</v>
+        <v>59.12607818841</v>
       </c>
       <c r="S8">
-        <v>0.0004702300120393227</v>
+        <v>0.002570637698477764</v>
       </c>
       <c r="T8">
-        <v>0.0005891182613902108</v>
+        <v>0.003263134056192581</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -983,10 +983,10 @@
         <v>17.248962</v>
       </c>
       <c r="I9">
-        <v>0.05240653924154719</v>
+        <v>0.07988549945244224</v>
       </c>
       <c r="J9">
-        <v>0.0705872251319459</v>
+        <v>0.1149694438152775</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -1001,10 +1001,10 @@
         <v>14.596253</v>
       </c>
       <c r="O9">
-        <v>0.09078472687764562</v>
+        <v>0.09134965950092246</v>
       </c>
       <c r="P9">
-        <v>0.1266646895538805</v>
+        <v>0.1208586558920509</v>
       </c>
       <c r="Q9">
         <v>27.97446814882067</v>
@@ -1013,10 +1013,10 @@
         <v>251.770213339386</v>
       </c>
       <c r="S9">
-        <v>0.004757713351646479</v>
+        <v>0.007297513174041726</v>
       </c>
       <c r="T9">
-        <v>0.008940908957807799</v>
+        <v>0.0138950524481711</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1045,10 +1045,10 @@
         <v>17.248962</v>
       </c>
       <c r="I10">
-        <v>0.05240653924154719</v>
+        <v>0.07988549945244224</v>
       </c>
       <c r="J10">
-        <v>0.0705872251319459</v>
+        <v>0.1149694438152775</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1057,28 +1057,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>1.708736</v>
+        <v>3.153815333333333</v>
       </c>
       <c r="N10">
-        <v>5.126208</v>
+        <v>9.461445999999999</v>
       </c>
       <c r="O10">
-        <v>0.03188362062496464</v>
+        <v>0.05921381812759512</v>
       </c>
       <c r="P10">
-        <v>0.04448467321775106</v>
+        <v>0.07834186255576833</v>
       </c>
       <c r="Q10">
-        <v>9.824640777343999</v>
+        <v>18.13334694656133</v>
       </c>
       <c r="R10">
-        <v>88.421766996096</v>
+        <v>163.200122519052</v>
       </c>
       <c r="S10">
-        <v>0.001670910215444812</v>
+        <v>0.004730325435609014</v>
       </c>
       <c r="T10">
-        <v>0.003140049643342439</v>
+        <v>0.009006920365489597</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1107,10 +1107,10 @@
         <v>17.248962</v>
       </c>
       <c r="I11">
-        <v>0.05240653924154719</v>
+        <v>0.07988549945244224</v>
       </c>
       <c r="J11">
-        <v>0.0705872251319459</v>
+        <v>0.1149694438152775</v>
       </c>
       <c r="K11">
         <v>2</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>45.062479</v>
+        <v>37.2992575</v>
       </c>
       <c r="N11">
-        <v>90.12495799999999</v>
+        <v>74.59851499999999</v>
       </c>
       <c r="O11">
-        <v>0.8408291186329754</v>
+        <v>0.7003046204246175</v>
       </c>
       <c r="P11">
-        <v>0.7820945434507416</v>
+        <v>0.6176842957191133</v>
       </c>
       <c r="Q11">
-        <v>259.0936626322659</v>
+        <v>214.457825081905</v>
       </c>
       <c r="R11">
-        <v>1554.561975793596</v>
+        <v>1286.74695049143</v>
       </c>
       <c r="S11">
-        <v>0.04406494420107456</v>
+        <v>0.05594418437147355</v>
       </c>
       <c r="T11">
-        <v>0.05520588361302394</v>
+        <v>0.07101481993225783</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1169,10 +1169,10 @@
         <v>17.248962</v>
       </c>
       <c r="I12">
-        <v>0.05240653924154719</v>
+        <v>0.07988549945244224</v>
       </c>
       <c r="J12">
-        <v>0.0705872251319459</v>
+        <v>0.1149694438152775</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>0.5802156666666667</v>
+        <v>2.928649333333333</v>
       </c>
       <c r="N12">
-        <v>1.740647</v>
+        <v>8.785947999999999</v>
       </c>
       <c r="O12">
-        <v>0.01082635128929275</v>
+        <v>0.05498625970602254</v>
       </c>
       <c r="P12">
-        <v>0.01510514457908433</v>
+        <v>0.07274866131858995</v>
       </c>
       <c r="Q12">
-        <v>3.336039328712666</v>
+        <v>16.83872035399733</v>
       </c>
       <c r="R12">
-        <v>30.024353958414</v>
+        <v>151.548483185976</v>
       </c>
       <c r="S12">
-        <v>0.0005673716036850956</v>
+        <v>0.00439260481963731</v>
       </c>
       <c r="T12">
-        <v>0.001066230241054418</v>
+        <v>0.008363873130104277</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1231,10 +1231,10 @@
         <v>17.248962</v>
       </c>
       <c r="I13">
-        <v>0.05240653924154719</v>
+        <v>0.07988549945244224</v>
       </c>
       <c r="J13">
-        <v>0.0705872251319459</v>
+        <v>0.1149694438152775</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,28 +1243,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>0.8951863333333333</v>
+        <v>3.300433333333334</v>
       </c>
       <c r="N13">
-        <v>2.685559</v>
+        <v>9.901300000000001</v>
       </c>
       <c r="O13">
-        <v>0.01670344713323365</v>
+        <v>0.06196661455624835</v>
       </c>
       <c r="P13">
-        <v>0.02330498772620821</v>
+        <v>0.08198390433380152</v>
       </c>
       <c r="Q13">
-        <v>5.147011682195333</v>
+        <v>18.97634971673333</v>
       </c>
       <c r="R13">
-        <v>46.323105139758</v>
+        <v>170.7871474506</v>
       </c>
       <c r="S13">
-        <v>0.0008753698576569181</v>
+        <v>0.004950233953202877</v>
       </c>
       <c r="T13">
-        <v>0.001645034415327095</v>
+        <v>0.009425643883062077</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,22 +1281,22 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F14">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G14">
-        <v>0.2246043333333333</v>
+        <v>0.05230033333333334</v>
       </c>
       <c r="H14">
-        <v>0.673813</v>
+        <v>0.156901</v>
       </c>
       <c r="I14">
-        <v>0.002047207676958453</v>
+        <v>0.0007266590737220965</v>
       </c>
       <c r="J14">
-        <v>0.002757417514620988</v>
+        <v>0.001045791665844058</v>
       </c>
       <c r="K14">
         <v>2</v>
@@ -1305,28 +1305,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>0.4808749999999999</v>
+        <v>1.7139025</v>
       </c>
       <c r="N14">
-        <v>0.9617499999999999</v>
+        <v>3.427805</v>
       </c>
       <c r="O14">
-        <v>0.008972735441887963</v>
+        <v>0.03217902768459407</v>
       </c>
       <c r="P14">
-        <v>0.008345961472334341</v>
+        <v>0.02838262018067593</v>
       </c>
       <c r="Q14">
-        <v>0.1080066087916667</v>
+        <v>0.08963767205083335</v>
       </c>
       <c r="R14">
-        <v>0.6480396527499999</v>
+        <v>0.537826032305</v>
       </c>
       <c r="S14">
-        <v>1.836905287995024E-05</v>
+        <v>2.338318245056483E-05</v>
       </c>
       <c r="T14">
-        <v>2.301330034016668E-05</v>
+        <v>2.968230763976826E-05</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,22 +1343,22 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F15">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G15">
-        <v>0.2246043333333333</v>
+        <v>0.05230033333333334</v>
       </c>
       <c r="H15">
-        <v>0.673813</v>
+        <v>0.156901</v>
       </c>
       <c r="I15">
-        <v>0.002047207676958453</v>
+        <v>0.0007266590737220965</v>
       </c>
       <c r="J15">
-        <v>0.002757417514620988</v>
+        <v>0.001045791665844058</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1373,22 +1373,22 @@
         <v>14.596253</v>
       </c>
       <c r="O15">
-        <v>0.09078472687764562</v>
+        <v>0.09134965950092246</v>
       </c>
       <c r="P15">
-        <v>0.1266646895538805</v>
+        <v>0.1208586558920509</v>
       </c>
       <c r="Q15">
-        <v>1.092793891409889</v>
+        <v>0.2544629657725556</v>
       </c>
       <c r="R15">
-        <v>9.835145022689</v>
+        <v>2.290166691953</v>
       </c>
       <c r="S15">
-        <v>0.0001858551898144925</v>
+        <v>6.638005895776922E-05</v>
       </c>
       <c r="T15">
-        <v>0.0003492674334599001</v>
+        <v>0.0001263929750770217</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,22 +1405,22 @@
         <v>22</v>
       </c>
       <c r="E16">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F16">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G16">
-        <v>0.2246043333333333</v>
+        <v>0.05230033333333334</v>
       </c>
       <c r="H16">
-        <v>0.673813</v>
+        <v>0.156901</v>
       </c>
       <c r="I16">
-        <v>0.002047207676958453</v>
+        <v>0.0007266590737220965</v>
       </c>
       <c r="J16">
-        <v>0.002757417514620988</v>
+        <v>0.001045791665844058</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1429,28 +1429,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>1.708736</v>
+        <v>3.153815333333333</v>
       </c>
       <c r="N16">
-        <v>5.126208</v>
+        <v>9.461445999999999</v>
       </c>
       <c r="O16">
-        <v>0.03188362062496464</v>
+        <v>0.05921381812759512</v>
       </c>
       <c r="P16">
-        <v>0.04448467321775106</v>
+        <v>0.07834186255576833</v>
       </c>
       <c r="Q16">
-        <v>0.3837895101226667</v>
+        <v>0.1649455932051111</v>
       </c>
       <c r="R16">
-        <v>3.454105591104</v>
+        <v>1.484510338846</v>
       </c>
       <c r="S16">
-        <v>6.527239291265847E-05</v>
+        <v>4.302825823214695E-05</v>
       </c>
       <c r="T16">
-        <v>0.000122662817062818</v>
+        <v>8.192926694752319E-05</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,22 +1467,22 @@
         <v>23</v>
       </c>
       <c r="E17">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F17">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G17">
-        <v>0.2246043333333333</v>
+        <v>0.05230033333333334</v>
       </c>
       <c r="H17">
-        <v>0.673813</v>
+        <v>0.156901</v>
       </c>
       <c r="I17">
-        <v>0.002047207676958453</v>
+        <v>0.0007266590737220965</v>
       </c>
       <c r="J17">
-        <v>0.002757417514620988</v>
+        <v>0.001045791665844058</v>
       </c>
       <c r="K17">
         <v>2</v>
@@ -1491,28 +1491,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>45.062479</v>
+        <v>37.2992575</v>
       </c>
       <c r="N17">
-        <v>90.12495799999999</v>
+        <v>74.59851499999999</v>
       </c>
       <c r="O17">
-        <v>0.8408291186329754</v>
+        <v>0.7003046204246175</v>
       </c>
       <c r="P17">
-        <v>0.7820945434507416</v>
+        <v>0.6176842957191133</v>
       </c>
       <c r="Q17">
-        <v>10.12122805414233</v>
+        <v>1.950763600335833</v>
       </c>
       <c r="R17">
-        <v>60.72736832485399</v>
+        <v>11.704581602015</v>
       </c>
       <c r="S17">
-        <v>0.001721351826675637</v>
+        <v>0.0005088827068010569</v>
       </c>
       <c r="T17">
-        <v>0.00215656119220058</v>
+        <v>0.0006459690885858053</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1529,22 +1529,22 @@
         <v>24</v>
       </c>
       <c r="E18">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F18">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G18">
-        <v>0.2246043333333333</v>
+        <v>0.05230033333333334</v>
       </c>
       <c r="H18">
-        <v>0.673813</v>
+        <v>0.156901</v>
       </c>
       <c r="I18">
-        <v>0.002047207676958453</v>
+        <v>0.0007266590737220965</v>
       </c>
       <c r="J18">
-        <v>0.002757417514620988</v>
+        <v>0.001045791665844058</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1553,28 +1553,28 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>0.5802156666666667</v>
+        <v>2.928649333333333</v>
       </c>
       <c r="N18">
-        <v>1.740647</v>
+        <v>8.785947999999999</v>
       </c>
       <c r="O18">
-        <v>0.01082635128929275</v>
+        <v>0.05498625970602254</v>
       </c>
       <c r="P18">
-        <v>0.01510514457908433</v>
+        <v>0.07274866131858995</v>
       </c>
       <c r="Q18">
-        <v>0.1303189530012222</v>
+        <v>0.1531693363497778</v>
       </c>
       <c r="R18">
-        <v>1.172870577011</v>
+        <v>1.378524027148</v>
       </c>
       <c r="S18">
-        <v>2.216378947288917E-05</v>
+        <v>3.995626454542098E-05</v>
       </c>
       <c r="T18">
-        <v>4.16511902232494E-05</v>
+        <v>7.607994370829337E-05</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1591,22 +1591,22 @@
         <v>25</v>
       </c>
       <c r="E19">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F19">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G19">
-        <v>0.2246043333333333</v>
+        <v>0.05230033333333334</v>
       </c>
       <c r="H19">
-        <v>0.673813</v>
+        <v>0.156901</v>
       </c>
       <c r="I19">
-        <v>0.002047207676958453</v>
+        <v>0.0007266590737220965</v>
       </c>
       <c r="J19">
-        <v>0.002757417514620988</v>
+        <v>0.001045791665844058</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1615,28 +1615,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>0.8951863333333333</v>
+        <v>3.300433333333334</v>
       </c>
       <c r="N19">
-        <v>2.685559</v>
+        <v>9.901300000000001</v>
       </c>
       <c r="O19">
-        <v>0.01670344713323365</v>
+        <v>0.06196661455624835</v>
       </c>
       <c r="P19">
-        <v>0.02330498772620821</v>
+        <v>0.08198390433380152</v>
       </c>
       <c r="Q19">
-        <v>0.2010627296074444</v>
+        <v>0.1726137634777778</v>
       </c>
       <c r="R19">
-        <v>1.809564566467</v>
+        <v>1.5535238713</v>
       </c>
       <c r="S19">
-        <v>3.419542520282559E-05</v>
+        <v>4.502860273513761E-05</v>
       </c>
       <c r="T19">
-        <v>6.426158133427366E-05</v>
+        <v>8.573808388564618E-05</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1659,16 +1659,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>30.264707</v>
+        <v>46.506306</v>
       </c>
       <c r="H20">
-        <v>60.529414</v>
+        <v>93.012612</v>
       </c>
       <c r="I20">
-        <v>0.2758546088215792</v>
+        <v>0.6461570526675364</v>
       </c>
       <c r="J20">
-        <v>0.2477020572671421</v>
+        <v>0.6199566251839504</v>
       </c>
       <c r="K20">
         <v>2</v>
@@ -1677,28 +1677,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>0.4808749999999999</v>
+        <v>1.7139025</v>
       </c>
       <c r="N20">
-        <v>0.9617499999999999</v>
+        <v>3.427805</v>
       </c>
       <c r="O20">
-        <v>0.008972735441887963</v>
+        <v>0.03217902768459407</v>
       </c>
       <c r="P20">
-        <v>0.008345961472334341</v>
+        <v>0.02838262018067593</v>
       </c>
       <c r="Q20">
-        <v>14.553540978625</v>
+        <v>79.70727411916501</v>
       </c>
       <c r="R20">
-        <v>58.2141639145</v>
+        <v>318.82909647666</v>
       </c>
       <c r="S20">
-        <v>0.002475170425381523</v>
+        <v>0.02079270568638437</v>
       </c>
       <c r="T20">
-        <v>0.002067311826569523</v>
+        <v>0.01759599342108973</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1721,16 +1721,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>30.264707</v>
+        <v>46.506306</v>
       </c>
       <c r="H21">
-        <v>60.529414</v>
+        <v>93.012612</v>
       </c>
       <c r="I21">
-        <v>0.2758546088215792</v>
+        <v>0.6461570526675364</v>
       </c>
       <c r="J21">
-        <v>0.2477020572671421</v>
+        <v>0.6199566251839504</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1745,22 +1745,22 @@
         <v>14.596253</v>
       </c>
       <c r="O21">
-        <v>0.09078472687764562</v>
+        <v>0.09134965950092246</v>
       </c>
       <c r="P21">
-        <v>0.1266646895538805</v>
+        <v>0.1208586558920509</v>
       </c>
       <c r="Q21">
-        <v>147.2504401142903</v>
+        <v>226.272602823806</v>
       </c>
       <c r="R21">
-        <v>883.5026406857421</v>
+        <v>1357.635616942836</v>
       </c>
       <c r="S21">
-        <v>0.02504338531980684</v>
+        <v>0.05902622674529907</v>
       </c>
       <c r="T21">
-        <v>0.03137510418560008</v>
+        <v>0.07492712443110423</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1783,16 +1783,16 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>30.264707</v>
+        <v>46.506306</v>
       </c>
       <c r="H22">
-        <v>60.529414</v>
+        <v>93.012612</v>
       </c>
       <c r="I22">
-        <v>0.2758546088215792</v>
+        <v>0.6461570526675364</v>
       </c>
       <c r="J22">
-        <v>0.2477020572671421</v>
+        <v>0.6199566251839504</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1801,28 +1801,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>1.708736</v>
+        <v>3.153815333333333</v>
       </c>
       <c r="N22">
-        <v>5.126208</v>
+        <v>9.461445999999999</v>
       </c>
       <c r="O22">
-        <v>0.03188362062496464</v>
+        <v>0.05921381812759512</v>
       </c>
       <c r="P22">
-        <v>0.04448467321775106</v>
+        <v>0.07834186255576833</v>
       </c>
       <c r="Q22">
-        <v>51.714394380352</v>
+        <v>146.672300959492</v>
       </c>
       <c r="R22">
-        <v>310.286366282112</v>
+        <v>880.0338057569519</v>
       </c>
       <c r="S22">
-        <v>0.008795243695315254</v>
+        <v>0.0382614261985184</v>
       </c>
       <c r="T22">
-        <v>0.01101894507289348</v>
+        <v>0.04856855672069903</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1845,16 +1845,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>30.264707</v>
+        <v>46.506306</v>
       </c>
       <c r="H23">
-        <v>60.529414</v>
+        <v>93.012612</v>
       </c>
       <c r="I23">
-        <v>0.2758546088215792</v>
+        <v>0.6461570526675364</v>
       </c>
       <c r="J23">
-        <v>0.2477020572671421</v>
+        <v>0.6199566251839504</v>
       </c>
       <c r="K23">
         <v>2</v>
@@ -1863,28 +1863,28 @@
         <v>1</v>
       </c>
       <c r="M23">
-        <v>45.062479</v>
+        <v>37.2992575</v>
       </c>
       <c r="N23">
-        <v>90.12495799999999</v>
+        <v>74.59851499999999</v>
       </c>
       <c r="O23">
-        <v>0.8408291186329754</v>
+        <v>0.7003046204246175</v>
       </c>
       <c r="P23">
-        <v>0.7820945434507416</v>
+        <v>0.6176842957191133</v>
       </c>
       <c r="Q23">
-        <v>1363.802723628653</v>
+        <v>1734.650682867795</v>
       </c>
       <c r="R23">
-        <v>5455.210894514612</v>
+        <v>6938.602731471179</v>
       </c>
       <c r="S23">
-        <v>0.2319465876062926</v>
+        <v>0.4525067695030286</v>
       </c>
       <c r="T23">
-        <v>0.193726427390155</v>
+        <v>0.3829374714031468</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1907,16 +1907,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>30.264707</v>
+        <v>46.506306</v>
       </c>
       <c r="H24">
-        <v>60.529414</v>
+        <v>93.012612</v>
       </c>
       <c r="I24">
-        <v>0.2758546088215792</v>
+        <v>0.6461570526675364</v>
       </c>
       <c r="J24">
-        <v>0.2477020572671421</v>
+        <v>0.6199566251839504</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1925,28 +1925,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>0.5802156666666667</v>
+        <v>2.928649333333333</v>
       </c>
       <c r="N24">
-        <v>1.740647</v>
+        <v>8.785947999999999</v>
       </c>
       <c r="O24">
-        <v>0.01082635128929275</v>
+        <v>0.05498625970602254</v>
       </c>
       <c r="P24">
-        <v>0.01510514457908433</v>
+        <v>0.07274866131858995</v>
       </c>
       <c r="Q24">
-        <v>17.56005714847634</v>
+        <v>136.200662062696</v>
       </c>
       <c r="R24">
-        <v>105.360342890858</v>
+        <v>817.203972376176</v>
       </c>
       <c r="S24">
-        <v>0.002986498899872852</v>
+        <v>0.03552975950885524</v>
       </c>
       <c r="T24">
-        <v>0.003741575387556808</v>
+        <v>0.04510101455772322</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1969,16 +1969,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>30.264707</v>
+        <v>46.506306</v>
       </c>
       <c r="H25">
-        <v>60.529414</v>
+        <v>93.012612</v>
       </c>
       <c r="I25">
-        <v>0.2758546088215792</v>
+        <v>0.6461570526675364</v>
       </c>
       <c r="J25">
-        <v>0.2477020572671421</v>
+        <v>0.6199566251839504</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1987,28 +1987,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>0.8951863333333333</v>
+        <v>3.300433333333334</v>
       </c>
       <c r="N25">
-        <v>2.685559</v>
+        <v>9.901300000000001</v>
       </c>
       <c r="O25">
-        <v>0.01670344713323365</v>
+        <v>0.06196661455624835</v>
       </c>
       <c r="P25">
-        <v>0.02330498772620821</v>
+        <v>0.08198390433380152</v>
       </c>
       <c r="Q25">
-        <v>27.09255208873767</v>
+        <v>153.4909625326</v>
       </c>
       <c r="R25">
-        <v>162.555312532426</v>
+        <v>920.9457751956002</v>
       </c>
       <c r="S25">
-        <v>0.004607722874910096</v>
+        <v>0.04004016502545069</v>
       </c>
       <c r="T25">
-        <v>0.005772693404367269</v>
+        <v>0.05082646465018744</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2025,22 +2025,22 @@
         <v>20</v>
       </c>
       <c r="E26">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F26">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G26">
-        <v>18.89124133333333</v>
+        <v>0.133172</v>
       </c>
       <c r="H26">
-        <v>56.673724</v>
+        <v>0.399516</v>
       </c>
       <c r="I26">
-        <v>0.1721885491295427</v>
+        <v>0.001850287292605892</v>
       </c>
       <c r="J26">
-        <v>0.2319235740129618</v>
+        <v>0.002662892544798023</v>
       </c>
       <c r="K26">
         <v>2</v>
@@ -2049,28 +2049,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>0.4808749999999999</v>
+        <v>1.7139025</v>
       </c>
       <c r="N26">
-        <v>0.9617499999999999</v>
+        <v>3.427805</v>
       </c>
       <c r="O26">
-        <v>0.008972735441887963</v>
+        <v>0.03217902768459407</v>
       </c>
       <c r="P26">
-        <v>0.008345961472334341</v>
+        <v>0.02838262018067593</v>
       </c>
       <c r="Q26">
-        <v>9.084325676166666</v>
+        <v>0.22824382373</v>
       </c>
       <c r="R26">
-        <v>54.505954057</v>
+        <v>1.36946294238</v>
       </c>
       <c r="S26">
-        <v>0.001545002297461914</v>
+        <v>5.954044601321762E-05</v>
       </c>
       <c r="T26">
-        <v>0.001935625213238261</v>
+        <v>7.557986768095584E-05</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2087,22 +2087,22 @@
         <v>21</v>
       </c>
       <c r="E27">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F27">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G27">
-        <v>18.89124133333333</v>
+        <v>0.133172</v>
       </c>
       <c r="H27">
-        <v>56.673724</v>
+        <v>0.399516</v>
       </c>
       <c r="I27">
-        <v>0.1721885491295427</v>
+        <v>0.001850287292605892</v>
       </c>
       <c r="J27">
-        <v>0.2319235740129618</v>
+        <v>0.002662892544798023</v>
       </c>
       <c r="K27">
         <v>3</v>
@@ -2117,22 +2117,22 @@
         <v>14.596253</v>
       </c>
       <c r="O27">
-        <v>0.09078472687764562</v>
+        <v>0.09134965950092246</v>
       </c>
       <c r="P27">
-        <v>0.1266646895538805</v>
+        <v>0.1208586558920509</v>
       </c>
       <c r="Q27">
-        <v>91.91377932846356</v>
+        <v>0.6479374015053333</v>
       </c>
       <c r="R27">
-        <v>827.224013956172</v>
+        <v>5.831436613548</v>
       </c>
       <c r="S27">
-        <v>0.0156320904041836</v>
+        <v>0.0001690231141584319</v>
       </c>
       <c r="T27">
-        <v>0.02937652750257823</v>
+        <v>0.000321833613749252</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2149,22 +2149,22 @@
         <v>22</v>
       </c>
       <c r="E28">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F28">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G28">
-        <v>18.89124133333333</v>
+        <v>0.133172</v>
       </c>
       <c r="H28">
-        <v>56.673724</v>
+        <v>0.399516</v>
       </c>
       <c r="I28">
-        <v>0.1721885491295427</v>
+        <v>0.001850287292605892</v>
       </c>
       <c r="J28">
-        <v>0.2319235740129618</v>
+        <v>0.002662892544798023</v>
       </c>
       <c r="K28">
         <v>3</v>
@@ -2173,28 +2173,28 @@
         <v>1</v>
       </c>
       <c r="M28">
-        <v>1.708736</v>
+        <v>3.153815333333333</v>
       </c>
       <c r="N28">
-        <v>5.126208</v>
+        <v>9.461445999999999</v>
       </c>
       <c r="O28">
-        <v>0.03188362062496464</v>
+        <v>0.05921381812759512</v>
       </c>
       <c r="P28">
-        <v>0.04448467321775106</v>
+        <v>0.07834186255576833</v>
       </c>
       <c r="Q28">
-        <v>32.28014415095467</v>
+        <v>0.4199998955706665</v>
       </c>
       <c r="R28">
-        <v>290.521297358592</v>
+        <v>3.779999060135999</v>
       </c>
       <c r="S28">
-        <v>0.005489994376409423</v>
+        <v>0.0001095625752281657</v>
       </c>
       <c r="T28">
-        <v>0.01031704440145951</v>
+        <v>0.0002086159617453469</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2211,22 +2211,22 @@
         <v>23</v>
       </c>
       <c r="E29">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F29">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G29">
-        <v>18.89124133333333</v>
+        <v>0.133172</v>
       </c>
       <c r="H29">
-        <v>56.673724</v>
+        <v>0.399516</v>
       </c>
       <c r="I29">
-        <v>0.1721885491295427</v>
+        <v>0.001850287292605892</v>
       </c>
       <c r="J29">
-        <v>0.2319235740129618</v>
+        <v>0.002662892544798023</v>
       </c>
       <c r="K29">
         <v>2</v>
@@ -2235,28 +2235,28 @@
         <v>1</v>
       </c>
       <c r="M29">
-        <v>45.062479</v>
+        <v>37.2992575</v>
       </c>
       <c r="N29">
-        <v>90.12495799999999</v>
+        <v>74.59851499999999</v>
       </c>
       <c r="O29">
-        <v>0.8408291186329754</v>
+        <v>0.7003046204246175</v>
       </c>
       <c r="P29">
-        <v>0.7820945434507416</v>
+        <v>0.6176842957191133</v>
       </c>
       <c r="Q29">
-        <v>851.2861658672653</v>
+        <v>4.967216719789999</v>
       </c>
       <c r="R29">
-        <v>5107.716995203592</v>
+        <v>29.80330031874</v>
       </c>
       <c r="S29">
-        <v>0.1447811460032842</v>
+        <v>0.001295764740124862</v>
       </c>
       <c r="T29">
-        <v>0.1813861617331316</v>
+        <v>0.001644826906109244</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2273,22 +2273,22 @@
         <v>24</v>
       </c>
       <c r="E30">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F30">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G30">
-        <v>18.89124133333333</v>
+        <v>0.133172</v>
       </c>
       <c r="H30">
-        <v>56.673724</v>
+        <v>0.399516</v>
       </c>
       <c r="I30">
-        <v>0.1721885491295427</v>
+        <v>0.001850287292605892</v>
       </c>
       <c r="J30">
-        <v>0.2319235740129618</v>
+        <v>0.002662892544798023</v>
       </c>
       <c r="K30">
         <v>3</v>
@@ -2297,28 +2297,28 @@
         <v>1</v>
       </c>
       <c r="M30">
-        <v>0.5802156666666667</v>
+        <v>2.928649333333333</v>
       </c>
       <c r="N30">
-        <v>1.740647</v>
+        <v>8.785947999999999</v>
       </c>
       <c r="O30">
-        <v>0.01082635128929275</v>
+        <v>0.05498625970602254</v>
       </c>
       <c r="P30">
-        <v>0.01510514457908433</v>
+        <v>0.07274866131858995</v>
       </c>
       <c r="Q30">
-        <v>10.96099418438089</v>
+        <v>0.3900140890186666</v>
       </c>
       <c r="R30">
-        <v>98.648947659428</v>
+        <v>3.510126801168</v>
       </c>
       <c r="S30">
-        <v>0.001864173720870073</v>
+        <v>0.0001017403776019809</v>
       </c>
       <c r="T30">
-        <v>0.003503239116763754</v>
+        <v>0.0001937218678693095</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2335,22 +2335,22 @@
         <v>25</v>
       </c>
       <c r="E31">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F31">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G31">
-        <v>18.89124133333333</v>
+        <v>0.133172</v>
       </c>
       <c r="H31">
-        <v>56.673724</v>
+        <v>0.399516</v>
       </c>
       <c r="I31">
-        <v>0.1721885491295427</v>
+        <v>0.001850287292605892</v>
       </c>
       <c r="J31">
-        <v>0.2319235740129618</v>
+        <v>0.002662892544798023</v>
       </c>
       <c r="K31">
         <v>3</v>
@@ -2359,28 +2359,28 @@
         <v>1</v>
       </c>
       <c r="M31">
-        <v>0.8951863333333333</v>
+        <v>3.300433333333334</v>
       </c>
       <c r="N31">
-        <v>2.685559</v>
+        <v>9.901300000000001</v>
       </c>
       <c r="O31">
-        <v>0.01670344713323365</v>
+        <v>0.06196661455624835</v>
       </c>
       <c r="P31">
-        <v>0.02330498772620821</v>
+        <v>0.08198390433380152</v>
       </c>
       <c r="Q31">
-        <v>16.91118106130178</v>
+        <v>0.4395253078666667</v>
       </c>
       <c r="R31">
-        <v>152.200629551716</v>
+        <v>3.9557277708</v>
       </c>
       <c r="S31">
-        <v>0.002876142327333521</v>
+        <v>0.0001146560394792336</v>
       </c>
       <c r="T31">
-        <v>0.005404976045790415</v>
+        <v>0.0002183143276439144</v>
       </c>
     </row>
     <row r="32" spans="1:20">
@@ -2403,16 +2403,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G32">
-        <v>0.07323266666666667</v>
+        <v>0.148336</v>
       </c>
       <c r="H32">
-        <v>0.219698</v>
+        <v>0.445008</v>
       </c>
       <c r="I32">
-        <v>0.0006674959257426293</v>
+        <v>0.0020609753990027</v>
       </c>
       <c r="J32">
-        <v>0.0008990611833360321</v>
+        <v>0.002966110207289517</v>
       </c>
       <c r="K32">
         <v>2</v>
@@ -2421,28 +2421,28 @@
         <v>1</v>
       </c>
       <c r="M32">
-        <v>0.4808749999999999</v>
+        <v>1.7139025</v>
       </c>
       <c r="N32">
-        <v>0.9617499999999999</v>
+        <v>3.427805</v>
       </c>
       <c r="O32">
-        <v>0.008972735441887963</v>
+        <v>0.03217902768459407</v>
       </c>
       <c r="P32">
-        <v>0.008345961472334341</v>
+        <v>0.02838262018067593</v>
       </c>
       <c r="Q32">
-        <v>0.03521575858333333</v>
+        <v>0.25423344124</v>
       </c>
       <c r="R32">
-        <v>0.2112945515</v>
+        <v>1.52540064744</v>
       </c>
       <c r="S32">
-        <v>5.989264350226706E-06</v>
+        <v>6.632018442177522E-05</v>
       </c>
       <c r="T32">
-        <v>7.503529997393845E-06</v>
+        <v>8.418597942752431E-05</v>
       </c>
     </row>
     <row r="33" spans="1:20">
@@ -2465,16 +2465,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G33">
-        <v>0.07323266666666667</v>
+        <v>0.148336</v>
       </c>
       <c r="H33">
-        <v>0.219698</v>
+        <v>0.445008</v>
       </c>
       <c r="I33">
-        <v>0.0006674959257426293</v>
+        <v>0.0020609753990027</v>
       </c>
       <c r="J33">
-        <v>0.0008990611833360321</v>
+        <v>0.002966110207289517</v>
       </c>
       <c r="K33">
         <v>3</v>
@@ -2489,22 +2489,22 @@
         <v>14.596253</v>
       </c>
       <c r="O33">
-        <v>0.09078472687764562</v>
+        <v>0.09134965950092246</v>
       </c>
       <c r="P33">
-        <v>0.1266646895538805</v>
+        <v>0.1208586558920509</v>
       </c>
       <c r="Q33">
-        <v>0.3563075101771111</v>
+        <v>0.7217165950026666</v>
       </c>
       <c r="R33">
-        <v>3.206767591594</v>
+        <v>6.495449355024</v>
       </c>
       <c r="S33">
-        <v>6.059843531048582E-05</v>
+        <v>0.0001882694009386745</v>
       </c>
       <c r="T33">
-        <v>0.0001138793056772029</v>
+        <v>0.0003584800928807035</v>
       </c>
     </row>
     <row r="34" spans="1:20">
@@ -2527,16 +2527,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G34">
-        <v>0.07323266666666667</v>
+        <v>0.148336</v>
       </c>
       <c r="H34">
-        <v>0.219698</v>
+        <v>0.445008</v>
       </c>
       <c r="I34">
-        <v>0.0006674959257426293</v>
+        <v>0.0020609753990027</v>
       </c>
       <c r="J34">
-        <v>0.0008990611833360321</v>
+        <v>0.002966110207289517</v>
       </c>
       <c r="K34">
         <v>3</v>
@@ -2545,28 +2545,28 @@
         <v>1</v>
       </c>
       <c r="M34">
-        <v>1.708736</v>
+        <v>3.153815333333333</v>
       </c>
       <c r="N34">
-        <v>5.126208</v>
+        <v>9.461445999999999</v>
       </c>
       <c r="O34">
-        <v>0.03188362062496464</v>
+        <v>0.05921381812759512</v>
       </c>
       <c r="P34">
-        <v>0.04448467321775106</v>
+        <v>0.07834186255576833</v>
       </c>
       <c r="Q34">
-        <v>0.1251352939093333</v>
+        <v>0.4678243512853332</v>
       </c>
       <c r="R34">
-        <v>1.126217645184</v>
+        <v>4.210419161568</v>
       </c>
       <c r="S34">
-        <v>2.128218686508756E-05</v>
+        <v>0.0001220382224419937</v>
       </c>
       <c r="T34">
-        <v>3.999444294346797E-05</v>
+        <v>0.0002323705981847369</v>
       </c>
     </row>
     <row r="35" spans="1:20">
@@ -2589,16 +2589,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G35">
-        <v>0.07323266666666667</v>
+        <v>0.148336</v>
       </c>
       <c r="H35">
-        <v>0.219698</v>
+        <v>0.445008</v>
       </c>
       <c r="I35">
-        <v>0.0006674959257426293</v>
+        <v>0.0020609753990027</v>
       </c>
       <c r="J35">
-        <v>0.0008990611833360321</v>
+        <v>0.002966110207289517</v>
       </c>
       <c r="K35">
         <v>2</v>
@@ -2607,28 +2607,28 @@
         <v>1</v>
       </c>
       <c r="M35">
-        <v>45.062479</v>
+        <v>37.2992575</v>
       </c>
       <c r="N35">
-        <v>90.12495799999999</v>
+        <v>74.59851499999999</v>
       </c>
       <c r="O35">
-        <v>0.8408291186329754</v>
+        <v>0.7003046204246175</v>
       </c>
       <c r="P35">
-        <v>0.7820945434507416</v>
+        <v>0.6176842957191133</v>
       </c>
       <c r="Q35">
-        <v>3.300045503780666</v>
+        <v>5.532822660519999</v>
       </c>
       <c r="R35">
-        <v>19.800273022684</v>
+        <v>33.19693596312</v>
       </c>
       <c r="S35">
-        <v>0.000561250010933277</v>
+        <v>0.001443310594503061</v>
       </c>
       <c r="T35">
-        <v>0.0007031508457154775</v>
+        <v>0.001832119694414899</v>
       </c>
     </row>
     <row r="36" spans="1:20">
@@ -2651,16 +2651,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G36">
-        <v>0.07323266666666667</v>
+        <v>0.148336</v>
       </c>
       <c r="H36">
-        <v>0.219698</v>
+        <v>0.445008</v>
       </c>
       <c r="I36">
-        <v>0.0006674959257426293</v>
+        <v>0.0020609753990027</v>
       </c>
       <c r="J36">
-        <v>0.0008990611833360321</v>
+        <v>0.002966110207289517</v>
       </c>
       <c r="K36">
         <v>3</v>
@@ -2669,28 +2669,28 @@
         <v>1</v>
       </c>
       <c r="M36">
-        <v>0.5802156666666667</v>
+        <v>2.928649333333333</v>
       </c>
       <c r="N36">
-        <v>1.740647</v>
+        <v>8.785947999999999</v>
       </c>
       <c r="O36">
-        <v>0.01082635128929275</v>
+        <v>0.05498625970602254</v>
       </c>
       <c r="P36">
-        <v>0.01510514457908433</v>
+        <v>0.07274866131858995</v>
       </c>
       <c r="Q36">
-        <v>0.04249074051177778</v>
+        <v>0.4344241275093333</v>
       </c>
       <c r="R36">
-        <v>0.382416664606</v>
+        <v>3.909817147584</v>
       </c>
       <c r="S36">
-        <v>7.226545376261374E-06</v>
+        <v>0.0001133253285372859</v>
       </c>
       <c r="T36">
-        <v>1.358044915973341E-05</v>
+        <v>0.0002157805469037177</v>
       </c>
     </row>
     <row r="37" spans="1:20">
@@ -2713,16 +2713,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G37">
-        <v>0.07323266666666667</v>
+        <v>0.148336</v>
       </c>
       <c r="H37">
-        <v>0.219698</v>
+        <v>0.445008</v>
       </c>
       <c r="I37">
-        <v>0.0006674959257426293</v>
+        <v>0.0020609753990027</v>
       </c>
       <c r="J37">
-        <v>0.0008990611833360321</v>
+        <v>0.002966110207289517</v>
       </c>
       <c r="K37">
         <v>3</v>
@@ -2731,28 +2731,28 @@
         <v>1</v>
       </c>
       <c r="M37">
-        <v>0.8951863333333333</v>
+        <v>3.300433333333334</v>
       </c>
       <c r="N37">
-        <v>2.685559</v>
+        <v>9.901300000000001</v>
       </c>
       <c r="O37">
-        <v>0.01670344713323365</v>
+        <v>0.06196661455624835</v>
       </c>
       <c r="P37">
-        <v>0.02330498772620821</v>
+        <v>0.08198390433380152</v>
       </c>
       <c r="Q37">
-        <v>0.06555688235355556</v>
+        <v>0.4895730789333334</v>
       </c>
       <c r="R37">
-        <v>0.5900119411820001</v>
+        <v>4.4061577104</v>
       </c>
       <c r="S37">
-        <v>1.114948290729086E-05</v>
+        <v>0.0001277116681599105</v>
       </c>
       <c r="T37">
-        <v>2.095260984275646E-05</v>
+        <v>0.000243173295477936</v>
       </c>
     </row>
   </sheetData>
